--- a/Orcad/6089-103-RevB_summary_BOM_with_inventory.xlsx
+++ b/Orcad/6089-103-RevB_summary_BOM_with_inventory.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="21345" windowHeight="10050"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="21345" windowHeight="10050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SCHEMATIC PARTS" sheetId="1" r:id="rId1"/>
@@ -3591,8 +3591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="T139" sqref="T139"/>
     </sheetView>
   </sheetViews>
@@ -12059,7 +12059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC43"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
@@ -12177,7 +12177,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="1">
-        <f>NUM_BOARDS*B6</f>
+        <f t="shared" ref="I6:I12" si="0">NUM_BOARDS*B6</f>
         <v>10</v>
       </c>
       <c r="J6" s="1">
@@ -12201,11 +12201,11 @@
         <v>172</v>
       </c>
       <c r="Q6" s="10">
-        <f>B6*P6</f>
+        <f t="shared" ref="Q6:Q12" si="1">B6*P6</f>
         <v>172</v>
       </c>
       <c r="R6" s="3">
-        <f t="shared" ref="R6:R12" si="0">M6*P6</f>
+        <f t="shared" ref="R6:R12" si="2">M6*P6</f>
         <v>172</v>
       </c>
       <c r="S6" s="4" t="s">
@@ -12227,7 +12227,7 @@
         <v>208</v>
       </c>
       <c r="I7" s="1">
-        <f>NUM_BOARDS*B7</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
@@ -12250,11 +12250,11 @@
         <v>172</v>
       </c>
       <c r="Q7" s="10">
-        <f>B7*P7</f>
+        <f t="shared" si="1"/>
         <v>172</v>
       </c>
       <c r="R7" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>172</v>
       </c>
       <c r="S7" s="4" t="s">
@@ -12273,7 +12273,7 @@
         <v>211</v>
       </c>
       <c r="I8" s="1">
-        <f>NUM_BOARDS*B8</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="J8" s="1">
@@ -12299,11 +12299,11 @@
         <v>21.95</v>
       </c>
       <c r="Q8" s="10">
-        <f>B8*P8</f>
+        <f t="shared" si="1"/>
         <v>43.9</v>
       </c>
       <c r="R8" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>351.2</v>
       </c>
     </row>
@@ -12319,7 +12319,7 @@
         <v>209</v>
       </c>
       <c r="I9" s="1">
-        <f>NUM_BOARDS*B9</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
@@ -12339,11 +12339,11 @@
         <v>126.63</v>
       </c>
       <c r="Q9" s="10">
-        <f>B9*P9</f>
+        <f t="shared" si="1"/>
         <v>126.63</v>
       </c>
       <c r="R9" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -12359,7 +12359,7 @@
         <v>210</v>
       </c>
       <c r="I10" s="1">
-        <f>NUM_BOARDS*B10</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
@@ -12379,11 +12379,11 @@
         <v>126.63</v>
       </c>
       <c r="Q10" s="10">
-        <f>B10*P10</f>
+        <f t="shared" si="1"/>
         <v>126.63</v>
       </c>
       <c r="R10" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -12410,31 +12410,31 @@
         <v>232</v>
       </c>
       <c r="I11" s="1">
-        <f>NUM_BOARDS*B11</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" ref="J11:J12" si="1">2+ROUNDDOWN(0.05*I11,0)</f>
+        <f t="shared" ref="J11:J12" si="3">2+ROUNDDOWN(0.05*I11,0)</f>
         <v>3</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" ref="K11:K12" si="2">I11+J11</f>
+        <f t="shared" ref="K11:K12" si="4">I11+J11</f>
         <v>23</v>
       </c>
       <c r="L11" s="1"/>
       <c r="O11" s="7">
-        <f t="shared" ref="O11:O12" si="3">M11-N11</f>
+        <f t="shared" ref="O11:O12" si="5">M11-N11</f>
         <v>0</v>
       </c>
       <c r="P11" s="10">
         <v>18.043500000000002</v>
       </c>
       <c r="Q11" s="10">
-        <f>B11*P11</f>
+        <f t="shared" si="1"/>
         <v>36.087000000000003</v>
       </c>
       <c r="R11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S11" s="4"/>
@@ -12462,31 +12462,31 @@
         <v>232</v>
       </c>
       <c r="I12" s="1">
-        <f>NUM_BOARDS*B12</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="L12" s="1"/>
       <c r="O12" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P12" s="10">
         <v>70</v>
       </c>
       <c r="Q12" s="10">
-        <f>B12*P12</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="R12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S12" s="4"/>
@@ -12636,7 +12636,7 @@
         <v>726</v>
       </c>
       <c r="I18" s="1">
-        <f>NUM_BOARDS*B18</f>
+        <f t="shared" ref="I18:I23" si="6">NUM_BOARDS*B18</f>
         <v>120</v>
       </c>
       <c r="J18" s="1">
@@ -12662,7 +12662,7 @@
         <v>1.423</v>
       </c>
       <c r="Q18" s="10">
-        <f>B18*P18</f>
+        <f t="shared" ref="Q18:Q23" si="7">B18*P18</f>
         <v>17.076000000000001</v>
       </c>
       <c r="R18" s="3">
@@ -12698,7 +12698,7 @@
         <v>727</v>
       </c>
       <c r="I19" s="1">
-        <f>NUM_BOARDS*B19</f>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="J19" s="1">
@@ -12724,7 +12724,7 @@
         <v>0.127</v>
       </c>
       <c r="Q19" s="10">
-        <f>B19*P19</f>
+        <f t="shared" si="7"/>
         <v>0.76200000000000001</v>
       </c>
       <c r="R19" s="3">
@@ -12755,7 +12755,7 @@
         <v>728</v>
       </c>
       <c r="I20" s="1">
-        <f>NUM_BOARDS*B20</f>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="J20" s="1">
@@ -12781,11 +12781,11 @@
         <v>0.86860000000000004</v>
       </c>
       <c r="Q20" s="10">
-        <f>B20*P20</f>
+        <f t="shared" si="7"/>
         <v>6.9488000000000003</v>
       </c>
       <c r="R20" s="3">
-        <f t="shared" ref="R20:R23" si="4">M20*P20</f>
+        <f t="shared" ref="R20:R23" si="8">M20*P20</f>
         <v>86.86</v>
       </c>
     </row>
@@ -12812,7 +12812,7 @@
         <v>764</v>
       </c>
       <c r="I21" s="1">
-        <f>NUM_BOARDS*B21</f>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="J21" s="1">
@@ -12838,11 +12838,11 @@
         <v>0.86860000000000004</v>
       </c>
       <c r="Q21" s="10">
-        <f>B21*P21</f>
+        <f t="shared" si="7"/>
         <v>6.9488000000000003</v>
       </c>
       <c r="R21" s="3">
-        <f t="shared" ref="R21" si="5">M21*P21</f>
+        <f t="shared" ref="R21" si="9">M21*P21</f>
         <v>0</v>
       </c>
     </row>
@@ -12869,15 +12869,15 @@
         <v>729</v>
       </c>
       <c r="I22" s="1">
-        <f>NUM_BOARDS*B22</f>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" ref="J22:J23" si="6">2+ROUNDDOWN(0.05*I22,0)</f>
+        <f t="shared" ref="J22:J23" si="10">2+ROUNDDOWN(0.05*I22,0)</f>
         <v>4</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" ref="K22:K23" si="7">I22+J22</f>
+        <f t="shared" ref="K22:K23" si="11">I22+J22</f>
         <v>44</v>
       </c>
       <c r="L22" s="1"/>
@@ -12888,18 +12888,18 @@
         <v>50</v>
       </c>
       <c r="O22" s="7">
-        <f t="shared" ref="O22:O23" si="8">M22-N22</f>
+        <f t="shared" ref="O22:O23" si="12">M22-N22</f>
         <v>0</v>
       </c>
       <c r="P22" s="10">
         <v>0.54879999999999995</v>
       </c>
       <c r="Q22" s="10">
-        <f>B22*P22</f>
+        <f t="shared" si="7"/>
         <v>2.1951999999999998</v>
       </c>
       <c r="R22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>27.439999999999998</v>
       </c>
       <c r="V22" s="9"/>
@@ -12931,15 +12931,15 @@
         <v>731</v>
       </c>
       <c r="I23" s="1">
-        <f>NUM_BOARDS*B23</f>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>65</v>
       </c>
       <c r="L23" s="1"/>
@@ -12950,18 +12950,18 @@
         <v>100</v>
       </c>
       <c r="O23" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P23" s="10">
         <v>0.16400000000000001</v>
       </c>
       <c r="Q23" s="10">
-        <f>B23*P23</f>
+        <f t="shared" si="7"/>
         <v>0.98399999999999999</v>
       </c>
       <c r="R23" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>16.400000000000002</v>
       </c>
       <c r="V23" s="9"/>
@@ -13211,11 +13211,11 @@
         <v>270</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" ref="J31:J32" si="9">2+ROUNDDOWN(0.05*I31,0)</f>
+        <f t="shared" ref="J31:J32" si="13">2+ROUNDDOWN(0.05*I31,0)</f>
         <v>15</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" ref="K31:K32" si="10">I31+J31</f>
+        <f t="shared" ref="K31:K32" si="14">I31+J31</f>
         <v>285</v>
       </c>
       <c r="L31" s="1"/>
@@ -13226,7 +13226,7 @@
         <v>350</v>
       </c>
       <c r="O31" s="7">
-        <f t="shared" ref="O31:O32" si="11">M31-N31</f>
+        <f t="shared" ref="O31:O32" si="15">M31-N31</f>
         <v>0</v>
       </c>
       <c r="Q31" s="10">
@@ -13252,11 +13252,11 @@
         <v>280</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>296</v>
       </c>
       <c r="L32" s="1"/>
@@ -13267,7 +13267,7 @@
         <v>500</v>
       </c>
       <c r="O32" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q32" s="10">
@@ -13299,11 +13299,11 @@
         <v>40</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" ref="J34" si="12">2+ROUNDDOWN(0.05*I34,0)</f>
+        <f t="shared" ref="J34" si="16">2+ROUNDDOWN(0.05*I34,0)</f>
         <v>4</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" ref="K34" si="13">I34+J34</f>
+        <f t="shared" ref="K34" si="17">I34+J34</f>
         <v>44</v>
       </c>
       <c r="L34" s="1"/>
@@ -13314,7 +13314,7 @@
         <v>2</v>
       </c>
       <c r="O34" s="7">
-        <f t="shared" ref="O34" si="14">M34-N34</f>
+        <f t="shared" ref="O34" si="18">M34-N34</f>
         <v>10</v>
       </c>
       <c r="P34" s="10">
@@ -13325,7 +13325,7 @@
         <v>129.91999999999999</v>
       </c>
       <c r="R34" s="3">
-        <f t="shared" ref="R34" si="15">M34*P34</f>
+        <f t="shared" ref="R34" si="19">M34*P34</f>
         <v>389.76</v>
       </c>
       <c r="V34" s="9"/>
@@ -13358,11 +13358,11 @@
         <v>70</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" ref="J36" si="16">2+ROUNDDOWN(0.05*I36,0)</f>
+        <f t="shared" ref="J36" si="20">2+ROUNDDOWN(0.05*I36,0)</f>
         <v>5</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" ref="K36" si="17">I36+J36</f>
+        <f t="shared" ref="K36" si="21">I36+J36</f>
         <v>75</v>
       </c>
       <c r="L36" s="1"/>
@@ -13373,7 +13373,7 @@
         <v>0</v>
       </c>
       <c r="O36" s="7">
-        <f t="shared" ref="O36" si="18">M36-N36</f>
+        <f t="shared" ref="O36" si="22">M36-N36</f>
         <v>0</v>
       </c>
       <c r="P36" s="10">
@@ -13384,7 +13384,7 @@
         <v>3.3936000000000002</v>
       </c>
       <c r="R36" s="3">
-        <f t="shared" ref="R36" si="19">M36*P36</f>
+        <f t="shared" ref="R36" si="23">M36*P36</f>
         <v>0</v>
       </c>
     </row>
@@ -13407,18 +13407,18 @@
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" ref="J38:J39" si="20">2+ROUNDDOWN(0.05*I38,0)</f>
+        <f t="shared" ref="J38:J39" si="24">2+ROUNDDOWN(0.05*I38,0)</f>
         <v>2</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" ref="K38:K39" si="21">I38+J38</f>
+        <f t="shared" ref="K38:K39" si="25">I38+J38</f>
         <v>12</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="14"/>
       <c r="N38" s="14"/>
       <c r="O38" s="7">
-        <f t="shared" ref="O38:O39" si="22">M38-N38</f>
+        <f t="shared" ref="O38:O39" si="26">M38-N38</f>
         <v>0</v>
       </c>
       <c r="P38" s="14"/>
@@ -13446,18 +13446,18 @@
         <v>10</v>
       </c>
       <c r="J39" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="K39" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P39" s="3"/>
@@ -13629,7 +13629,7 @@
   <dimension ref="A1:AC34"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14420,7 +14420,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="14"/>
+      <c r="Q33" s="14">
+        <v>1000</v>
+      </c>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34" s="9">
@@ -14458,7 +14460,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q34" s="3"/>
+      <c r="Q34" s="3">
+        <v>1000</v>
+      </c>
       <c r="R34" s="10">
         <f>N34*Q34</f>
         <v>0</v>

--- a/Orcad/6089-103-RevB_summary_BOM_with_inventory.xlsx
+++ b/Orcad/6089-103-RevB_summary_BOM_with_inventory.xlsx
@@ -12059,8 +12059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12825,25 +12825,25 @@
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N21" s="1">
         <v>0</v>
       </c>
       <c r="O21" s="7">
         <f>M21-N21</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P21" s="10">
-        <v>0.86860000000000004</v>
+        <v>1.0406</v>
       </c>
       <c r="Q21" s="10">
         <f t="shared" si="7"/>
-        <v>6.9488000000000003</v>
+        <v>8.3247999999999998</v>
       </c>
       <c r="R21" s="3">
         <f t="shared" ref="R21" si="9">M21*P21</f>
-        <v>0</v>
+        <v>104.06</v>
       </c>
     </row>
     <row r="22" spans="2:29" ht="30" x14ac:dyDescent="0.25">
@@ -13311,11 +13311,11 @@
         <v>12</v>
       </c>
       <c r="N34" s="9">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="O34" s="7">
         <f t="shared" ref="O34" si="18">M34-N34</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P34" s="10">
         <v>32.479999999999997</v>
@@ -13367,25 +13367,25 @@
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N36" s="9">
         <v>0</v>
       </c>
       <c r="O36" s="7">
         <f t="shared" ref="O36" si="22">M36-N36</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P36" s="10">
-        <v>0.48480000000000001</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="Q36" s="10">
         <f>B36*P36</f>
-        <v>3.3936000000000002</v>
+        <v>2.9889999999999999</v>
       </c>
       <c r="R36" s="3">
         <f t="shared" ref="R36" si="23">M36*P36</f>
-        <v>0</v>
+        <v>42.699999999999996</v>
       </c>
     </row>
     <row r="38" spans="2:29" x14ac:dyDescent="0.25">
@@ -13480,7 +13480,7 @@
     <row r="43" spans="2:29" x14ac:dyDescent="0.25">
       <c r="Q43" s="10">
         <f>SUM(Q6:Q42)</f>
-        <v>931.42939999999987</v>
+        <v>932.40079999999989</v>
       </c>
     </row>
   </sheetData>
